--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/COFORGE LIMITED Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/COFORGE LIMITED Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Yearly Results of COFORGE LIMITED(in Rs. Cr.)</t>
   </si>
@@ -149,6 +149,66 @@
   </si>
   <si>
     <t>Mar '24</t>
+  </si>
+  <si>
+    <t>185.94</t>
+  </si>
+  <si>
+    <t>220.09</t>
+  </si>
+  <si>
+    <t>297.16</t>
+  </si>
+  <si>
+    <t>444.71</t>
+  </si>
+  <si>
+    <t>502.07</t>
+  </si>
+  <si>
+    <t>493.58</t>
+  </si>
+  <si>
+    <t>729.28</t>
+  </si>
+  <si>
+    <t>827.46</t>
+  </si>
+  <si>
+    <t>1,108.30</t>
+  </si>
+  <si>
+    <t>1,308.48</t>
+  </si>
+  <si>
+    <t>1,346.09</t>
+  </si>
+  <si>
+    <t>1,467.81</t>
+  </si>
+  <si>
+    <t>1,595.15</t>
+  </si>
+  <si>
+    <t>1,645.90</t>
+  </si>
+  <si>
+    <t>1,999.20</t>
+  </si>
+  <si>
+    <t>2,231.00</t>
+  </si>
+  <si>
+    <t>2,412.40</t>
+  </si>
+  <si>
+    <t>3,313.20</t>
+  </si>
+  <si>
+    <t>4,230.50</t>
+  </si>
+  <si>
+    <t>4,848.90</t>
   </si>
 </sst>
 </file>
@@ -593,14 +653,14 @@
       <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="B2">
-        <v>185.94</v>
+      <c r="B2" t="s">
+        <v>45</v>
       </c>
       <c r="C2">
         <v>185.94</v>
       </c>
       <c r="D2">
-        <v>54.83230769230769</v>
+        <v>54.83</v>
       </c>
       <c r="E2">
         <v>69.84999999999999</v>
@@ -648,16 +708,16 @@
         <v>55</v>
       </c>
       <c r="T2">
-        <v>54.69571428571429</v>
+        <v>54.7</v>
       </c>
       <c r="U2">
-        <v>53.93214285714286</v>
+        <v>53.93</v>
       </c>
       <c r="V2">
-        <v>54.69571428571429</v>
+        <v>54.7</v>
       </c>
       <c r="W2">
-        <v>53.93214285714286</v>
+        <v>53.93</v>
       </c>
       <c r="X2">
         <v>2.32</v>
@@ -670,14 +730,14 @@
       <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="B3">
-        <v>220.09</v>
+      <c r="B3" t="s">
+        <v>46</v>
       </c>
       <c r="C3">
         <v>220.09</v>
       </c>
       <c r="D3">
-        <v>54.83230769230769</v>
+        <v>54.83</v>
       </c>
       <c r="E3">
         <v>92.79000000000001</v>
@@ -725,16 +785,16 @@
         <v>60</v>
       </c>
       <c r="T3">
-        <v>54.69571428571429</v>
+        <v>54.7</v>
       </c>
       <c r="U3">
-        <v>53.93214285714286</v>
+        <v>53.93</v>
       </c>
       <c r="V3">
-        <v>54.69571428571429</v>
+        <v>54.7</v>
       </c>
       <c r="W3">
-        <v>53.93214285714286</v>
+        <v>53.93</v>
       </c>
       <c r="X3">
         <v>2.32</v>
@@ -747,14 +807,14 @@
       <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B4">
-        <v>297.16</v>
+      <c r="B4" t="s">
+        <v>47</v>
       </c>
       <c r="C4">
         <v>297.16</v>
       </c>
       <c r="D4">
-        <v>54.83230769230769</v>
+        <v>54.83</v>
       </c>
       <c r="E4">
         <v>116.84</v>
@@ -802,16 +862,16 @@
         <v>65</v>
       </c>
       <c r="T4">
-        <v>54.69571428571429</v>
+        <v>54.7</v>
       </c>
       <c r="U4">
-        <v>53.93214285714286</v>
+        <v>53.93</v>
       </c>
       <c r="V4">
-        <v>54.69571428571429</v>
+        <v>54.7</v>
       </c>
       <c r="W4">
-        <v>53.93214285714286</v>
+        <v>53.93</v>
       </c>
       <c r="X4">
         <v>2.36</v>
@@ -824,14 +884,14 @@
       <c r="A5" t="s">
         <v>28</v>
       </c>
-      <c r="B5">
-        <v>444.71</v>
+      <c r="B5" t="s">
+        <v>48</v>
       </c>
       <c r="C5">
         <v>444.71</v>
       </c>
       <c r="D5">
-        <v>54.83230769230769</v>
+        <v>54.83</v>
       </c>
       <c r="E5">
         <v>213.51</v>
@@ -879,16 +939,16 @@
         <v>65</v>
       </c>
       <c r="T5">
-        <v>54.69571428571429</v>
+        <v>54.7</v>
       </c>
       <c r="U5">
-        <v>53.93214285714286</v>
+        <v>53.93</v>
       </c>
       <c r="V5">
-        <v>54.69571428571429</v>
+        <v>54.7</v>
       </c>
       <c r="W5">
-        <v>53.93214285714286</v>
+        <v>53.93</v>
       </c>
       <c r="X5">
         <v>3.54</v>
@@ -901,14 +961,14 @@
       <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="B6">
-        <v>502.07</v>
+      <c r="B6" t="s">
+        <v>49</v>
       </c>
       <c r="C6">
         <v>502.07</v>
       </c>
       <c r="D6">
-        <v>54.83230769230769</v>
+        <v>54.83</v>
       </c>
       <c r="E6">
         <v>261.61</v>
@@ -956,16 +1016,16 @@
         <v>65</v>
       </c>
       <c r="T6">
-        <v>54.69571428571429</v>
+        <v>54.7</v>
       </c>
       <c r="U6">
-        <v>53.93214285714286</v>
+        <v>53.93</v>
       </c>
       <c r="V6">
-        <v>54.69571428571429</v>
+        <v>54.7</v>
       </c>
       <c r="W6">
-        <v>53.93214285714286</v>
+        <v>53.93</v>
       </c>
       <c r="X6">
         <v>3.54</v>
@@ -978,14 +1038,14 @@
       <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="B7">
-        <v>493.58</v>
+      <c r="B7" t="s">
+        <v>50</v>
       </c>
       <c r="C7">
         <v>493.58</v>
       </c>
       <c r="D7">
-        <v>54.83230769230769</v>
+        <v>54.83</v>
       </c>
       <c r="E7">
         <v>254.59</v>
@@ -1033,16 +1093,16 @@
         <v>70</v>
       </c>
       <c r="T7">
-        <v>54.69571428571429</v>
+        <v>54.7</v>
       </c>
       <c r="U7">
-        <v>53.93214285714286</v>
+        <v>53.93</v>
       </c>
       <c r="V7">
-        <v>54.69571428571429</v>
+        <v>54.7</v>
       </c>
       <c r="W7">
-        <v>53.93214285714286</v>
+        <v>53.93</v>
       </c>
       <c r="X7">
         <v>3.55</v>
@@ -1055,14 +1115,14 @@
       <c r="A8" t="s">
         <v>31</v>
       </c>
-      <c r="B8">
-        <v>729.28</v>
+      <c r="B8" t="s">
+        <v>51</v>
       </c>
       <c r="C8">
         <v>729.28</v>
       </c>
       <c r="D8">
-        <v>54.83230769230769</v>
+        <v>54.83</v>
       </c>
       <c r="E8">
         <v>335.06</v>
@@ -1132,8 +1192,8 @@
       <c r="A9" t="s">
         <v>32</v>
       </c>
-      <c r="B9">
-        <v>827.46</v>
+      <c r="B9" t="s">
+        <v>52</v>
       </c>
       <c r="C9">
         <v>827.46</v>
@@ -1209,8 +1269,8 @@
       <c r="A10" t="s">
         <v>33</v>
       </c>
-      <c r="B10">
-        <v>462.53625</v>
+      <c r="B10" t="s">
+        <v>53</v>
       </c>
       <c r="C10">
         <v>1108.3</v>
@@ -1286,8 +1346,8 @@
       <c r="A11" t="s">
         <v>34</v>
       </c>
-      <c r="B11">
-        <v>462.53625</v>
+      <c r="B11" t="s">
+        <v>54</v>
       </c>
       <c r="C11">
         <v>1308.48</v>
@@ -1363,8 +1423,8 @@
       <c r="A12" t="s">
         <v>35</v>
       </c>
-      <c r="B12">
-        <v>462.53625</v>
+      <c r="B12" t="s">
+        <v>55</v>
       </c>
       <c r="C12">
         <v>1346.09</v>
@@ -1440,8 +1500,8 @@
       <c r="A13" t="s">
         <v>36</v>
       </c>
-      <c r="B13">
-        <v>462.53625</v>
+      <c r="B13" t="s">
+        <v>56</v>
       </c>
       <c r="C13">
         <v>1467.81</v>
@@ -1507,18 +1567,18 @@
         <v>31.57</v>
       </c>
       <c r="X13">
-        <v>3.40090909090909</v>
+        <v>3.4</v>
       </c>
       <c r="Y13">
-        <v>62.73272727272727</v>
+        <v>62.73</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
-      <c r="B14">
-        <v>462.53625</v>
+      <c r="B14" t="s">
+        <v>57</v>
       </c>
       <c r="C14">
         <v>1595.15</v>
@@ -1584,18 +1644,18 @@
         <v>26.84</v>
       </c>
       <c r="X14">
-        <v>3.40090909090909</v>
+        <v>3.4</v>
       </c>
       <c r="Y14">
-        <v>62.73272727272727</v>
+        <v>62.73</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
-      <c r="B15">
-        <v>462.53625</v>
+      <c r="B15" t="s">
+        <v>58</v>
       </c>
       <c r="C15">
         <v>1645.9</v>
@@ -1661,18 +1721,18 @@
         <v>36.6</v>
       </c>
       <c r="X15">
-        <v>3.40090909090909</v>
+        <v>3.4</v>
       </c>
       <c r="Y15">
-        <v>62.73272727272727</v>
+        <v>62.73</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
-      <c r="B16">
-        <v>462.53625</v>
+      <c r="B16" t="s">
+        <v>59</v>
       </c>
       <c r="C16">
         <v>1999.2</v>
@@ -1723,7 +1783,7 @@
         <v>1624.1</v>
       </c>
       <c r="S16">
-        <v>186.3157894736842</v>
+        <v>186.32</v>
       </c>
       <c r="T16">
         <v>48.55</v>
@@ -1738,18 +1798,18 @@
         <v>47.99</v>
       </c>
       <c r="X16">
-        <v>3.40090909090909</v>
+        <v>3.4</v>
       </c>
       <c r="Y16">
-        <v>62.73272727272727</v>
+        <v>62.73</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
-      <c r="B17">
-        <v>462.53625</v>
+      <c r="B17" t="s">
+        <v>60</v>
       </c>
       <c r="C17">
         <v>2231</v>
@@ -1815,18 +1875,18 @@
         <v>67.53</v>
       </c>
       <c r="X17">
-        <v>3.40090909090909</v>
+        <v>3.4</v>
       </c>
       <c r="Y17">
-        <v>62.73272727272727</v>
+        <v>62.73</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
         <v>41</v>
       </c>
-      <c r="B18">
-        <v>462.53625</v>
+      <c r="B18" t="s">
+        <v>61</v>
       </c>
       <c r="C18">
         <v>2412.4</v>
@@ -1892,18 +1952,18 @@
         <v>38.59</v>
       </c>
       <c r="X18">
-        <v>3.40090909090909</v>
+        <v>3.4</v>
       </c>
       <c r="Y18">
-        <v>62.73272727272727</v>
+        <v>62.73</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
-      <c r="B19">
-        <v>462.53625</v>
+      <c r="B19" t="s">
+        <v>62</v>
       </c>
       <c r="C19">
         <v>3313.2</v>
@@ -1969,18 +2029,18 @@
         <v>103.75</v>
       </c>
       <c r="X19">
-        <v>3.40090909090909</v>
+        <v>3.4</v>
       </c>
       <c r="Y19">
-        <v>62.73272727272727</v>
+        <v>62.73</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
-      <c r="B20">
-        <v>462.53625</v>
+      <c r="B20" t="s">
+        <v>63</v>
       </c>
       <c r="C20">
         <v>4230.5</v>
@@ -2046,18 +2106,18 @@
         <v>117.75</v>
       </c>
       <c r="X20">
-        <v>3.40090909090909</v>
+        <v>3.4</v>
       </c>
       <c r="Y20">
-        <v>62.73272727272727</v>
+        <v>62.73</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
         <v>44</v>
       </c>
-      <c r="B21">
-        <v>462.53625</v>
+      <c r="B21" t="s">
+        <v>64</v>
       </c>
       <c r="C21">
         <v>4848.9</v>
@@ -2123,10 +2183,10 @@
         <v>159.07</v>
       </c>
       <c r="X21">
-        <v>3.40090909090909</v>
+        <v>3.4</v>
       </c>
       <c r="Y21">
-        <v>62.73272727272727</v>
+        <v>62.73</v>
       </c>
     </row>
   </sheetData>
